--- a/starter-analysis-exercise/data/raw-data/exampledata2.xlsx
+++ b/starter-analysis-exercise/data/raw-data/exampledata2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC58A6D7-769A-0249-8301-63C63FDC4462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4963127-92F0-0841-87AC-4B2D2B0728A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51660" yWindow="1120" windowWidth="20780" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10100" yWindow="500" windowWidth="20780" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>Height</t>
   </si>
@@ -84,6 +84,27 @@
   </si>
   <si>
     <t>HC_time</t>
+  </si>
+  <si>
+    <t>self-reported health state, response to the question "How would you rate your current health?"</t>
+  </si>
+  <si>
+    <t>poor, fair, good, excellent, refused</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>fair</t>
+  </si>
+  <si>
+    <t>refused</t>
   </si>
 </sst>
 </file>
@@ -413,7 +434,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -448,6 +469,12 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -459,6 +486,12 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -470,6 +503,12 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -481,6 +520,12 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -492,6 +537,12 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -503,6 +554,12 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -514,6 +571,12 @@
       <c r="C8" t="s">
         <v>11</v>
       </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -525,6 +588,12 @@
       <c r="C9" t="s">
         <v>3</v>
       </c>
+      <c r="D9">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -536,6 +605,12 @@
       <c r="C10" t="s">
         <v>12</v>
       </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -547,6 +622,12 @@
       <c r="C11" t="s">
         <v>3</v>
       </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -555,6 +636,12 @@
       <c r="C12" t="s">
         <v>4</v>
       </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -566,6 +653,12 @@
       <c r="C13" t="s">
         <v>4</v>
       </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -577,6 +670,12 @@
       <c r="C14" t="s">
         <v>3</v>
       </c>
+      <c r="D14">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -587,6 +686,12 @@
       </c>
       <c r="C15" t="s">
         <v>3</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -596,10 +701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A2C8F0-62B4-4D60-B490-D490A3E0B40F}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -664,6 +769,17 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/starter-analysis-exercise/data/raw-data/exampledata2.xlsx
+++ b/starter-analysis-exercise/data/raw-data/exampledata2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4963127-92F0-0841-87AC-4B2D2B0728A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD4884C-75B3-A54D-954A-A39C8055350B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10100" yWindow="500" windowWidth="20780" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10100" yWindow="500" windowWidth="20780" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Height</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>identified gender (male/female/other)</t>
-  </si>
-  <si>
-    <t>HC_distance</t>
   </si>
   <si>
     <t>travel time to nearest healthcare facility (in minutes)</t>
@@ -433,7 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -453,10 +450,10 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -473,7 +470,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -490,7 +487,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -507,7 +504,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -524,7 +521,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -541,7 +538,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -558,7 +555,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -575,7 +572,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -592,7 +589,7 @@
         <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -609,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -626,7 +623,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -640,7 +637,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -657,7 +654,7 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -674,7 +671,7 @@
         <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -691,7 +688,7 @@
         <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -703,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A2C8F0-62B4-4D60-B490-D490A3E0B40F}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -760,10 +757,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -771,13 +768,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/starter-analysis-exercise/data/raw-data/exampledata2.xlsx
+++ b/starter-analysis-exercise/data/raw-data/exampledata2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD4884C-75B3-A54D-954A-A39C8055350B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2C5468-D8F1-B744-97AD-BCE0B2489F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10100" yWindow="500" windowWidth="20780" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>Height</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>refused</t>
+  </si>
+  <si>
+    <t>numeric value &gt;0 or -999</t>
   </si>
 </sst>
 </file>
@@ -701,7 +704,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -763,7 +766,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">

--- a/starter-analysis-exercise/data/raw-data/exampledata2.xlsx
+++ b/starter-analysis-exercise/data/raw-data/exampledata2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2C5468-D8F1-B744-97AD-BCE0B2489F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC171E9-3A6C-7543-AE66-9AF740ED5698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10100" yWindow="500" windowWidth="20780" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10100" yWindow="780" windowWidth="20780" windowHeight="19680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Height</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>refused</t>
-  </si>
-  <si>
-    <t>numeric value &gt;0 or -999</t>
   </si>
 </sst>
 </file>
@@ -704,7 +701,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -766,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
